--- a/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268088E5-C412-40CA-B905-306FF4002ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{460520B6-0D4F-45FA-AFEE-7A1ABE91758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0BDB7BA7-724C-4EE0-A963-8492359C0933}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2B2B7024-0EB3-413F-9785-D83FDAF57365}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,45 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
     <t>96,91%</t>
   </si>
   <si>
@@ -92,51 +131,90 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
     <t>87,72%</t>
   </si>
   <si>
@@ -155,82 +233,61 @@
     <t>54,14%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>90,08%</t>
@@ -257,66 +314,48 @@
     <t>96,75%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
     <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
   </si>
   <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
     <t>81,56%</t>
   </si>
   <si>
@@ -344,43 +383,73 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -398,73 +467,61 @@
     <t>68,94%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>87,42%</t>
@@ -494,66 +551,57 @@
     <t>93,4%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
   </si>
   <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
     <t>73,68%</t>
   </si>
   <si>
@@ -581,52 +629,61 @@
     <t>92,72%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>92,3%</t>
@@ -647,61 +704,61 @@
     <t>71,41%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>86,99%</t>
@@ -731,85 +788,28 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
     <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
     <t>82,92%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299D5D21-29A7-4834-9BE5-9D1D9EBCFC56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53116CB9-F6A8-4D1D-9BAA-F800C6537A3B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1325,13 +1325,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>20338</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1343,55 +1343,55 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>17875</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7">
-        <v>58</v>
-      </c>
-      <c r="N4" s="7">
-        <v>38213</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1400,34 +1400,34 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1436,49 +1436,49 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1487,65 +1487,65 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>448</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>448</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -1553,79 +1553,79 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>648</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>20338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>17875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>38213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,109 +1684,109 @@
         <v>31</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1849</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6084</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>593</v>
+        <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>700</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>691</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1284</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1795,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1876,34 +1876,34 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1912,79 +1912,79 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>4548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>9839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,25 +1993,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7339</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="7">
-        <v>4828</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
       <c r="I17" s="7">
-        <v>2540</v>
+        <v>4548</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2023,10 +2023,10 @@
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>7368</v>
+        <v>11887</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>30</v>
@@ -2040,76 +2040,76 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>5291</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>4548</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M18" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>9839</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2118,34 +2118,34 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2169,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2184,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2235,115 +2235,115 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>700</v>
+        <v>593</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>700</v>
+        <v>1284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>4235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>7339</v>
+        <v>4828</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2367,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4548</v>
+        <v>2540</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2382,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>11887</v>
+        <v>7368</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2402,109 +2402,109 @@
         <v>3</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>29865</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="H25" s="7">
-        <v>38</v>
-      </c>
-      <c r="I25" s="7">
-        <v>24273</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="7">
-        <v>82</v>
-      </c>
-      <c r="N25" s="7">
-        <v>54137</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2589</v>
+        <v>700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="7">
         <v>1</v>
       </c>
-      <c r="I26" s="7">
-        <v>691</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5</v>
-      </c>
       <c r="N26" s="7">
-        <v>3280</v>
+        <v>700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2513,49 +2513,49 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2564,145 +2564,145 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2589</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
-        <v>700</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>700</v>
+        <v>3280</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>29865</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>24273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>54137</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A0E793-5079-4402-8D4F-FA3F4F4724F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15416D21-56AA-4BF9-AFC4-665D581406E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,124 +2887,124 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12447</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15830</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>28277</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1299</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2178</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3477</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3013,49 +3013,49 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1516</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3064,130 +3064,130 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2178</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>12447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="7">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15830</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>28277</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,58 +3246,58 @@
         <v>31</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>7897</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1945</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9841</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -3306,49 +3306,49 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3372,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3387,34 +3387,34 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3423,130 +3423,130 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>8049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>6654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>14703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>7897</v>
+        <v>9319</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
@@ -3570,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>2679</v>
+        <v>7339</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -3585,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>10576</v>
+        <v>16658</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>30</v>
@@ -3602,127 +3602,127 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>8049</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>6654</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M18" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>14703</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>685</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1301</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3731,34 +3731,34 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3797,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3818,94 +3818,94 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>7897</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1945</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="7">
+        <v>14</v>
+      </c>
+      <c r="N23" s="7">
+        <v>9841</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,10 +3914,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>9319</v>
+        <v>7897</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3929,10 +3929,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>7339</v>
+        <v>2679</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3944,10 +3944,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>16658</v>
+        <v>10576</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3964,124 +3964,124 @@
         <v>3</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>28392</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="7">
-        <v>36</v>
-      </c>
-      <c r="I25" s="7">
-        <v>24429</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="M25" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>52822</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>654</v>
+        <v>1516</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4090,49 +4090,49 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>654</v>
+        <v>1516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1516</v>
+        <v>654</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4141,130 +4141,130 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>1516</v>
+        <v>654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>3597</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>28392</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="7">
+        <v>36</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24429</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="7">
+        <v>76</v>
+      </c>
+      <c r="N30" s="7">
+        <v>52822</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3118FC-F90D-4E45-9B85-E6014D4DCBE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F575798-84FB-4212-BC65-691858975E45}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,109 +4449,109 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5325</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10521</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>15845</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1250</v>
+        <v>652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1433</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2683</v>
+        <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4560,49 +4560,49 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4611,145 +4611,145 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>1250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>652</v>
+        <v>2683</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>5325</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>10521</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>15845</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,58 +4808,58 @@
         <v>31</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5378</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14844</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -4868,49 +4868,49 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4919,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4949,19 +4949,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4985,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5000,19 +5000,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5021,94 +5021,94 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>790</v>
+        <v>3214</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5189</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>790</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,10 +5117,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>10255</v>
+        <v>3214</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
@@ -5132,25 +5132,25 @@
         <v>30</v>
       </c>
       <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2657</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="7">
         <v>9</v>
       </c>
-      <c r="I17" s="7">
-        <v>6150</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
       <c r="N17" s="7">
-        <v>16405</v>
+        <v>5871</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>30</v>
@@ -5164,61 +5164,61 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
       <c r="D18" s="7">
-        <v>3214</v>
+        <v>790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>5189</v>
+        <v>790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5227,49 +5227,49 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5308,19 +5308,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5329,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5359,19 +5359,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5380,94 +5380,94 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>9465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5378</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="7">
         <v>20</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>14844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,10 +5476,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>3214</v>
+        <v>10255</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5491,10 +5491,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>2657</v>
+        <v>6150</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5506,10 +5506,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>5871</v>
+        <v>16405</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5526,109 +5526,109 @@
         <v>3</v>
       </c>
       <c r="B25" s="5">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="7">
-        <v>25</v>
-      </c>
       <c r="D25" s="7">
-        <v>18005</v>
+        <v>790</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>790</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H25" s="7">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7">
-        <v>17873</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" s="7">
-        <v>53</v>
-      </c>
-      <c r="N25" s="7">
-        <v>35878</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1250</v>
+        <v>652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>2886</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>4136</v>
+        <v>652</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5637,49 +5637,49 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -5688,142 +5688,142 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>652</v>
+        <v>1250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>2886</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>652</v>
+        <v>4136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>790</v>
+        <v>18005</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>17873</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N30" s="7">
-        <v>790</v>
+        <v>35878</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>248</v>
@@ -5896,7 +5896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C1595-C942-4387-9975-9DF2C0693CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2473CE7-4AB2-426E-BFF1-2749BB616691}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6011,58 +6011,58 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3696</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1731</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>5427</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6071,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6086,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6101,19 +6101,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6122,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6137,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6152,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6203,19 +6203,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6224,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6239,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6254,64 +6254,64 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>3696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>1731</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,58 +6370,58 @@
         <v>31</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5419</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2527</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7947</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -6430,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6460,19 +6460,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6481,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6496,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6511,19 +6511,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -6532,13 +6532,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6562,19 +6562,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -6583,13 +6583,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6613,64 +6613,64 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>4924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>7576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,10 +6679,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>5419</v>
+        <v>2652</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
@@ -6694,10 +6694,10 @@
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>2527</v>
+        <v>4924</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -6709,10 +6709,10 @@
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>7947</v>
+        <v>7576</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>30</v>
@@ -6726,61 +6726,61 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>4924</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>7576</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -6789,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6804,13 +6804,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6819,19 +6819,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -6840,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6870,19 +6870,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6891,13 +6891,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6906,13 +6906,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6921,19 +6921,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -6942,13 +6942,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6957,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6972,64 +6972,64 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>5419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>2527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>7947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,10 +7038,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>2652</v>
+        <v>5419</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7053,10 +7053,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4924</v>
+        <v>2527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7068,10 +7068,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>7576</v>
+        <v>7947</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7088,58 +7088,58 @@
         <v>3</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>11768</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>9182</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>20950</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7148,13 +7148,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7163,13 +7163,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7178,19 +7178,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -7199,13 +7199,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7214,13 +7214,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7229,19 +7229,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -7250,13 +7250,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7280,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -7301,13 +7301,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7316,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7331,64 +7331,64 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>11768</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>9182</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>20950</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{460520B6-0D4F-45FA-AFEE-7A1ABE91758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B419F6-D553-4365-8716-C849A9C98334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2B2B7024-0EB3-413F-9785-D83FDAF57365}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DD9391B-BAB6-4094-A4C9-BA770090557E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="260">
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="266">
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,739 +77,757 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>Menores según del número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -829,7 +847,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -925,39 +943,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1009,7 +1027,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1120,13 +1138,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1135,6 +1146,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1199,19 +1217,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53116CB9-F6A8-4D1D-9BAA-F800C6537A3B}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D6A192-BF86-426E-8764-0CDC7887FD5A}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1532,19 +1570,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1562,19 +1600,19 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,49 +1621,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>20338</v>
+        <v>16369</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7">
+        <v>17210</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>51</v>
+      </c>
+      <c r="N9" s="7">
+        <v>33578</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="7">
-        <v>28</v>
-      </c>
-      <c r="I9" s="7">
-        <v>17875</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="7">
-        <v>58</v>
-      </c>
-      <c r="N9" s="7">
-        <v>38213</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,54 +1672,54 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>20986</v>
+        <v>16369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>18323</v>
+        <v>17658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>39309</v>
+        <v>34026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>50</v>
@@ -1699,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1714,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1729,7 +1767,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,13 +1782,13 @@
         <v>700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1765,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1774,13 +1812,13 @@
         <v>700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1816,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1831,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1867,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1882,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,49 +1929,49 @@
         <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1348</v>
+        <v>1996</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1996</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1348</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,49 +1980,49 @@
         <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5291</v>
+        <v>6646</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3908</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="7">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7">
+        <v>10554</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4548</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9839</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,54 +2031,54 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>7339</v>
+        <v>9342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4548</v>
+        <v>3908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>11887</v>
+        <v>13250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -2058,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2073,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2088,7 +2126,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2124,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2139,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2175,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2190,7 +2228,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2226,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2241,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,43 +2294,43 @@
         <v>593</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>593</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>691</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1284</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,46 +2342,46 @@
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>4235</v>
+        <v>4114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1849</v>
+        <v>1959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>6084</v>
+        <v>6073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,51 +2393,51 @@
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>4828</v>
+        <v>4707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>2540</v>
+        <v>1959</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N24" s="7">
-        <v>7368</v>
+        <v>6666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -2417,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2432,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2447,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,19 +2494,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2483,22 +2521,22 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2534,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2549,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,37 +2608,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>2589</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2630,28 +2668,28 @@
         <v>691</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>3280</v>
+        <v>691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,49 +2698,49 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>29865</v>
+        <v>2736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="H30" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>24273</v>
+        <v>1196</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>54137</v>
+        <v>3931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,55 +2749,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2736</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1887</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4622</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>700</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>700</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>448</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>448</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2589</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>691</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="7">
+        <v>5</v>
+      </c>
+      <c r="N36" s="7">
+        <v>3280</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>44</v>
+      </c>
+      <c r="D37" s="7">
+        <v>29865</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="7">
+        <v>38</v>
+      </c>
+      <c r="I37" s="7">
+        <v>24273</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="7">
+        <v>82</v>
+      </c>
+      <c r="N37" s="7">
+        <v>54137</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>49</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>33154</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7">
         <v>40</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>25411</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="7">
         <v>89</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>58565</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>30</v>
+      <c r="O38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2772,8 +3175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15416D21-56AA-4BF9-AFC4-665D581406E5}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03415910-43E9-4194-993D-5AE619E7F912}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2789,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2902,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2917,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2932,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2968,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2983,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3401,13 @@
         <v>1516</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3019,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3028,13 +3431,13 @@
         <v>1516</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3070,7 +3473,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3085,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3503,13 @@
         <v>1299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3115,13 +3518,13 @@
         <v>2178</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3130,13 +3533,13 @@
         <v>3477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,49 +3548,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7799</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="7">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
-        <v>12447</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="7">
-        <v>23</v>
-      </c>
       <c r="I9" s="7">
-        <v>15830</v>
+        <v>12209</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>28277</v>
+        <v>20009</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,54 +3599,54 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>15262</v>
+        <v>10614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>18008</v>
+        <v>14387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>33269</v>
+        <v>25001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>50</v>
@@ -3261,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3276,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3291,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,7 +3715,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3327,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3342,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3378,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3393,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3811,13 @@
         <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3429,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3438,13 +3841,13 @@
         <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3862,13 @@
         <v>616</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3474,13 +3877,13 @@
         <v>685</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3489,13 +3892,13 @@
         <v>1301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,49 +3907,49 @@
         <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>8049</v>
+        <v>11369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>6654</v>
+        <v>10275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>14703</v>
+        <v>21644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,54 +3958,54 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>9319</v>
+        <v>12639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>7339</v>
+        <v>10960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>16658</v>
+        <v>23599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -3620,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3635,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3650,7 +4053,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3686,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3701,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3737,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3752,7 +4155,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3788,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3803,7 +4206,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +4227,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3833,13 +4236,13 @@
         <v>734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3848,13 +4251,13 @@
         <v>735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,49 +4266,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>7897</v>
+        <v>3887</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1945</v>
+        <v>609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>9841</v>
+        <v>4496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,54 +4317,54 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>7897</v>
+        <v>3887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>2679</v>
+        <v>1343</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M24" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>10576</v>
+        <v>5231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -3979,23 +4382,23 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
@@ -4009,7 +4412,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,23 +4433,23 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
@@ -4060,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,19 +4472,19 @@
         <v>4</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4096,22 +4499,22 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,19 +4523,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4147,22 +4550,22 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,49 +4574,49 @@
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,49 +4625,49 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>28392</v>
+        <v>5337</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="H30" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>24429</v>
+        <v>1336</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>52822</v>
+        <v>6672</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,55 +4676,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5337</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6672</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1516</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1516</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>654</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>654</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1915</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>3597</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="7">
+        <v>8</v>
+      </c>
+      <c r="N36" s="7">
+        <v>5512</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>40</v>
+      </c>
+      <c r="D37" s="7">
+        <v>28392</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" s="7">
+        <v>36</v>
+      </c>
+      <c r="I37" s="7">
+        <v>24429</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="7">
+        <v>76</v>
+      </c>
+      <c r="N37" s="7">
+        <v>52822</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>46</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>32477</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7">
         <v>41</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>28026</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="7">
         <v>87</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>60503</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>30</v>
+      <c r="O38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4334,8 +5102,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F575798-84FB-4212-BC65-691858975E45}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C8B05D-8A93-4A5F-955E-E94A770B19CD}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4351,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,7 +5232,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4479,7 +5247,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4494,7 +5262,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +5277,13 @@
         <v>652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4530,7 +5298,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4539,13 +5307,13 @@
         <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +5334,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4581,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4596,7 +5364,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,37 +5385,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,43 +5430,43 @@
         <v>1250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
-        <v>1433</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
       <c r="N8" s="7">
-        <v>2683</v>
+        <v>1250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,49 +5475,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5325</v>
+        <v>3901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6777</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="7">
         <v>17</v>
       </c>
-      <c r="I9" s="7">
-        <v>10521</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="7">
-        <v>25</v>
-      </c>
       <c r="N9" s="7">
-        <v>15845</v>
+        <v>10677</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,54 +5526,54 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>7228</v>
+        <v>5803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6777</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="7">
         <v>20</v>
       </c>
-      <c r="I10" s="7">
-        <v>12422</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7">
-        <v>31</v>
-      </c>
       <c r="N10" s="7">
-        <v>19649</v>
+        <v>12580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>50</v>
@@ -4823,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4838,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4853,7 +5621,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +5642,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4889,7 +5657,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4904,7 +5672,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +5693,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4940,7 +5708,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4955,7 +5723,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,37 +5744,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,37 +5795,37 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>682</v>
+        <v>2114</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>682</v>
+        <v>2114</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,46 +5837,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3214</v>
+        <v>3269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>1975</v>
+        <v>4449</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>5189</v>
+        <v>7718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,51 +5888,51 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3214</v>
+        <v>3269</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>2657</v>
+        <v>7032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>5871</v>
+        <v>10301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -5176,13 +5944,13 @@
         <v>790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5197,7 +5965,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5206,13 +5974,13 @@
         <v>790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +6001,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5248,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5263,7 +6031,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +6052,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5299,7 +6067,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5314,7 +6082,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +6103,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5350,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5365,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +6154,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5395,13 +6163,13 @@
         <v>772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5410,13 +6178,13 @@
         <v>772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,49 +6193,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>9465</v>
+        <v>4486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>5378</v>
+        <v>3295</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>14844</v>
+        <v>7782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,72 +6244,72 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5276</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4067</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
-        <v>10255</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6150</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
-        <v>22</v>
-      </c>
       <c r="N24" s="7">
-        <v>16405</v>
+        <v>9344</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5556,22 +6324,22 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,19 +6348,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5607,22 +6375,22 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +6411,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5658,7 +6426,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5673,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,37 +6462,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +6501,49 @@
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>2886</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>4136</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,49 +6552,49 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>18005</v>
+        <v>6349</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="H30" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>17873</v>
+        <v>3352</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>35878</v>
+        <v>9700</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,55 +6603,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6349</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3352</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9700</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>790</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>790</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>652</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>652</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>469</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>469</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2886</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="7">
+        <v>6</v>
+      </c>
+      <c r="N36" s="7">
+        <v>4136</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7">
+        <v>18005</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="7">
+        <v>28</v>
+      </c>
+      <c r="I37" s="7">
+        <v>17873</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" s="7">
+        <v>53</v>
+      </c>
+      <c r="N37" s="7">
+        <v>35878</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>29</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D38" s="7">
         <v>20697</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7">
         <v>33</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I38" s="7">
         <v>21228</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="7">
         <v>62</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N38" s="7">
         <v>41925</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>30</v>
+      <c r="O38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5896,8 +7029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2473CE7-4AB2-426E-BFF1-2749BB616691}">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78728D0-0960-4C36-94DA-49C4668ACED2}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5913,7 +7046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6026,7 +7159,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6041,7 +7174,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6056,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +7210,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6092,7 +7225,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6107,7 +7240,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,7 +7261,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6143,7 +7276,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6158,7 +7291,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,7 +7312,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6194,7 +7327,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6209,7 +7342,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,7 +7363,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6245,7 +7378,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6260,7 +7393,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,49 +7402,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>3696</v>
+        <v>2611</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1731</v>
+        <v>1307</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>5427</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,54 +7453,54 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3696</v>
+        <v>2611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1731</v>
+        <v>1307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>5427</v>
+        <v>3918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>50</v>
@@ -6385,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6400,7 +7533,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6415,7 +7548,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,7 +7569,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6451,7 +7584,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6466,7 +7599,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,7 +7620,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6502,7 +7635,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6517,7 +7650,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,7 +7671,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6553,7 +7686,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6568,7 +7701,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,7 +7722,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6604,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6619,7 +7752,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,49 +7761,49 @@
         <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2652</v>
+        <v>3064</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>4924</v>
+        <v>4602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>7576</v>
+        <v>7666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,54 +7812,54 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2652</v>
+        <v>3064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>4924</v>
+        <v>4602</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>7576</v>
+        <v>7666</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>50</v>
@@ -6744,7 +7877,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6759,7 +7892,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6774,7 +7907,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,7 +7928,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6810,7 +7943,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6825,7 +7958,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +7979,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6861,7 +7994,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6876,7 +8009,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,7 +8030,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6912,7 +8045,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6927,7 +8060,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,7 +8081,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6963,7 +8096,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6978,7 +8111,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,49 +8120,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2412</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1992</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="7">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
-        <v>5419</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2527</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="7">
-        <v>10</v>
-      </c>
       <c r="N23" s="7">
-        <v>7947</v>
+        <v>4404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,54 +8171,54 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2412</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1992</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>5419</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2527</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
-        <v>10</v>
-      </c>
       <c r="N24" s="7">
-        <v>7947</v>
+        <v>4404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -7103,7 +8236,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7118,7 +8251,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7133,7 +8266,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,7 +8287,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7169,7 +8302,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7184,7 +8317,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,7 +8338,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7220,7 +8353,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7235,7 +8368,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,7 +8389,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7271,7 +8404,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7286,7 +8419,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +8440,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7322,7 +8455,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7337,7 +8470,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,49 +8479,49 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>11768</v>
+        <v>3681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H30" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>9182</v>
+        <v>1281</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>20950</v>
+        <v>4963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,55 +8530,420 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3681</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1281</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4963</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
         <v>18</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D37" s="7">
         <v>11768</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="7">
         <v>15</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I37" s="7">
         <v>9182</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="7">
         <v>33</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N37" s="7">
         <v>20950</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>30</v>
+      <c r="O37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>18</v>
+      </c>
+      <c r="D38" s="7">
+        <v>11768</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7">
+        <v>15</v>
+      </c>
+      <c r="I38" s="7">
+        <v>9182</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="7">
+        <v>33</v>
+      </c>
+      <c r="N38" s="7">
+        <v>20950</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ21A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B419F6-D553-4365-8716-C849A9C98334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67412F22-023B-408B-8DCE-ED80F7EEE78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DD9391B-BAB6-4094-A4C9-BA770090557E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46E38A09-E2FC-405B-8F9F-8F6FF4A74868}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="263">
   <si>
     <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2007 (Tasa respuesta: 4,23%)</t>
   </si>
@@ -89,13 +89,13 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>5,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>97,46%</t>
   </si>
   <si>
-    <t>86,42%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,22%</t>
+    <t>94,5%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -134,40 +134,40 @@
     <t>7,5%</t>
   </si>
   <si>
-    <t>33,23%</t>
+    <t>29,79%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>32,92%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>71,14%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -176,10 +176,10 @@
     <t>79,65%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,433 +197,430 @@
     <t>12,6%</t>
   </si>
   <si>
-    <t>54,84%</t>
+    <t>54,52%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>38,11%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2016 (Tasa respuesta: 2,92%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
     <t>45,16%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2012 (Tasa respuesta: 4,14%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2015 (Tasa respuesta: 2,92%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>28,68%</t>
+    <t>26,0%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>32,61%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -632,67 +629,64 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>64,65%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>60,24%</t>
+    <t>60,63%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>37,41%</t>
+    <t>41,73%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -701,37 +695,37 @@
     <t>18,97%</t>
   </si>
   <si>
-    <t>72,33%</t>
+    <t>69,81%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>41,05%</t>
+    <t>37,98%</t>
   </si>
   <si>
     <t>85,03%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>39,37%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>51,91%</t>
+    <t>53,38%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>20,22%</t>
+    <t>23,67%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -740,19 +734,19 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>15,55%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -761,67 +755,64 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>21,87%</t>
+    <t>21,33%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>Menores según el número de veces que han estado hospitalizados a lo largo de estos últimos 12 meses en 2023 (Tasa respuesta: 1,72%)</t>
@@ -1248,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D6A192-BF86-426E-8764-0CDC7887FD5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1B55D-8700-4DCD-B228-12C251EF118F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3175,7 +3166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03415910-43E9-4194-993D-5AE619E7F912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7974F371-42CB-4D17-905D-0BA34D346A25}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3521,10 +3512,10 @@
         <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3533,13 +3524,13 @@
         <v>3477</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3545,13 @@
         <v>7799</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -3569,13 +3560,13 @@
         <v>12209</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3584,13 +3575,13 @@
         <v>20009</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,37 +3655,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,37 +3706,37 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,37 +3757,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3802,13 @@
         <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3832,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3841,13 +3832,13 @@
         <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3853,13 @@
         <v>616</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3877,13 +3868,13 @@
         <v>685</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3892,13 +3883,13 @@
         <v>1301</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,10 +3904,10 @@
         <v>11369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -3928,10 +3919,10 @@
         <v>10275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -3943,13 +3934,13 @@
         <v>21644</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4014,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4038,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4074,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4089,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4125,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4140,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4176,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4191,7 +4182,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4227,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4236,7 +4227,7 @@
         <v>734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
@@ -4251,13 +4242,13 @@
         <v>735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -4287,7 +4278,7 @@
         <v>609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
@@ -4302,10 +4293,10 @@
         <v>4496</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4382,7 +4373,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4397,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4433,7 +4424,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4448,7 +4439,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4484,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4499,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -4535,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4550,7 +4541,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4586,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4601,7 +4592,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4634,7 +4625,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>21</v>
@@ -4649,7 +4640,7 @@
         <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>21</v>
@@ -4664,7 +4655,7 @@
         <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>21</v>
@@ -4741,37 +4732,37 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,37 +4783,37 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4828,13 @@
         <v>1516</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4858,7 +4849,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4867,13 +4858,13 @@
         <v>1516</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4879,13 @@
         <v>654</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4909,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4918,13 +4909,13 @@
         <v>654</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4930,13 @@
         <v>1915</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -4954,13 +4945,13 @@
         <v>3597</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -4969,13 +4960,13 @@
         <v>5512</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4981,13 @@
         <v>28392</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -5005,13 +4996,13 @@
         <v>24429</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -5020,13 +5011,13 @@
         <v>52822</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C8B05D-8A93-4A5F-955E-E94A770B19CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06EB36F-EC6A-4C32-A149-035149D3AB90}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5119,7 +5110,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5232,22 +5223,22 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5277,14 +5268,14 @@
         <v>652</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -5298,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5307,13 +5298,13 @@
         <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,22 +5325,22 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5385,22 +5376,22 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5430,14 +5421,14 @@
         <v>1250</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -5451,7 +5442,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5460,13 +5451,13 @@
         <v>1250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5472,13 @@
         <v>3901</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5499,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>21</v>
@@ -5511,13 +5502,13 @@
         <v>10677</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5606,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5621,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,7 +5633,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5657,7 +5648,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5672,7 +5663,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5708,7 +5699,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5723,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,7 +5735,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5753,13 +5744,13 @@
         <v>469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5768,13 +5759,13 @@
         <v>469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5786,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5804,13 +5795,13 @@
         <v>2114</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -5819,13 +5810,13 @@
         <v>2114</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +5834,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -5855,13 +5846,13 @@
         <v>4449</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5870,13 +5861,13 @@
         <v>7718</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5935,13 @@
         <v>790</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5974,13 +5965,13 @@
         <v>790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6073,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6124,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6154,13 @@
         <v>772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6178,13 +6169,13 @@
         <v>772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,10 +6190,10 @@
         <v>4486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -6214,10 +6205,10 @@
         <v>3295</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -6229,10 +6220,10 @@
         <v>7782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -6309,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6324,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6339,7 +6330,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6351,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6375,7 +6366,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6390,7 +6381,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6402,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6426,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6441,7 +6432,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6477,7 +6468,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6492,7 +6483,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6528,7 +6519,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6543,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,7 +6552,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>21</v>
@@ -6576,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>21</v>
@@ -6591,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>21</v>
@@ -6668,7 +6659,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6683,7 +6674,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6692,13 +6683,13 @@
         <v>790</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6704,13 @@
         <v>652</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6734,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -6743,13 +6734,13 @@
         <v>652</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6785,7 +6776,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6800,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6830,13 +6821,13 @@
         <v>469</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6845,13 +6836,13 @@
         <v>469</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6857,13 @@
         <v>1250</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -6881,13 +6872,13 @@
         <v>2886</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6896,13 +6887,13 @@
         <v>4136</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6908,13 @@
         <v>18005</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -6932,13 +6923,13 @@
         <v>17873</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -6947,13 +6938,13 @@
         <v>35878</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78728D0-0960-4C36-94DA-49C4668ACED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4245EFA0-82CF-4996-B7E6-343E23CE4F21}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7046,7 +7037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7159,7 +7150,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7189,7 +7180,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7240,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7252,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7291,7 +7282,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,7 +7303,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7342,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7393,7 +7384,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,7 +7402,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>21</v>
@@ -7441,7 +7432,7 @@
         <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>21</v>
@@ -7548,7 +7539,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7590,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,7 +7641,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,7 +7743,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7776,7 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>21</v>
@@ -7800,7 +7791,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>21</v>
@@ -8251,7 +8242,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8302,7 +8293,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8353,7 +8344,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -8404,7 +8395,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8455,7 +8446,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8503,7 +8494,7 @@
         <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>21</v>
@@ -8595,7 +8586,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8625,7 +8616,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,7 +8637,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8676,7 +8667,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8697,7 +8688,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8727,7 +8718,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,7 +8739,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8778,7 +8769,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,7 +8790,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8829,7 +8820,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8847,7 +8838,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>21</v>
@@ -8862,7 +8853,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>21</v>
@@ -8877,7 +8868,7 @@
         <v>19</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>21</v>
